--- a/6.xlsx
+++ b/6.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hassan Laptop Point\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="275">
   <si>
     <t>1'030.40</t>
   </si>
@@ -444,6 +444,411 @@
   </si>
   <si>
     <t>06524253</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY ACNE EFFACLAR MAT 40 ML</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY ANTHELIOS AGE CORRECT CR LSF5</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY ANTHELIOS BABYMILCH LSF50+ 50</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY ANTHELIOS GEL OIL CONTROL LSF5</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY ANTHELIOS GESICHTSFLUID LSF30</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY ANTHELIOS GESICHTSPR LSF50 AE</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY ANTHELIOS KA+ MED TB 50 ML</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY ANTHELIOS LIPPENSTIFT XL 50+</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY ANTHELIOS MILCH 30 TB 250 ML</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY ANTHELIOS MILCH 50+ TB 100 ML</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY ANTHELIOS MILCH 50+TUBE M PAP</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY ANTHELIOS MINERAL ONE LSF50+ T</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY ANTHELIOS OIL CORRECT TB 50 ML</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY ANTHELIOS PIGMENT CORRECT DIS</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY ANTHELIOS POCKETS ERW LSF50+</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY ANTHELIOS POCKETS KIND LSF50+</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY ANTHELIOS SHAKA FLUID GET LSF5</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY ANTHELIOS SHAKA LSF50+ +MINI-P</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY ANTHELIOS SPRAY LSF50+ 200 ML</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY ANTHELIOS STICK LSF50+ ZONE SE</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY ANTHELIOS TRANS KOERPERSP LS</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY ANTHELIOS TRANSP FL UV MU GE 5</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY ANTHELIOS TRANSP FL UV MUNE 50</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY ANTHELIOS ULTRA CR UV MU GET 5</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY ANTHELIOS ULTRA CR UV MUNE 50</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY ANTHELIOS WET DP LSF50+ ECO TU</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY ANTHELIOS WET ER LSF50+ ECO TU</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY CICAPLAST BALSAM B5+ TB 100 ML</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY CICAPLAST BALSAM B5+ TB 40 ML</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY CICAPLAST BAUME B5 LSF50 40 ML</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY CICAPLAST GEL B5 TB 40 ML</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY CICAPLAST HAENDE 50 ML</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY CICAPLAST LIPPEN B5 TB 7.5 ML</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY CICAPLAST SERUM B5 FL 30 ML</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY DEO PHYSIO ROLL-ON 50 ML</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY DEO PHYSIO SPR 150 ML</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY DEO PHYSIO STICK 40 ML</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY EAU MICELLAIRE REAKTIVE HAUT 2</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY EAU THERMALE SPRAY 150 ML</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY EFFACLAR AI TB 15 ML</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY EFFACLAR DUO(+) LSF30 TB 40 ML</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY EFFACLAR DUO+M TB 40 ML</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY EFFACLAR DUO+UNIFIANT 40 ML</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY EFFACLAR EAU NETTOYANT PURIF</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY EFFACLAR H ISOBIOME CREME TB 4</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY EFFACLAR H ISOBIOME WASCHCRE</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY EFFACLAR H REINIGUNGSCREME F</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY EFFACLAR K+ TB 40 ML</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY EFFACLAR MASK TB 100 ML</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY EFFACLAR MICRO-PEELING CLEAN</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY EFFACLAR PORENVERFEINERNDE L</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY EFFACLAR REINIGENDE WASCHCR</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY EFFACLAR REINIGUNGSGEL TB 200</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY EFFACLAR REINIGUNGSGEL TB 400</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY EFFACLAR SERUM PIP FL 30 ML</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY HYALU BS AMPULLEN DEIITIFR 7 X 1</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY HYALU B5 AQUAGEL UV DE/IT/FR 50</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY HYALU BS AUGEN TB 15 ML</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY HYALU BS PFLEGE TB 40 ML</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY HYALU 85 SERUM FL 30 ML</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY HYALU B5 SERUM JUMBO FL 50 ML</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY HYDRAPHASE HA 88 CREME MEDIU</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY HYDRAPHASE HA LEICHT FRIDE/GR</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY HYDRAPHASE HA REICHHAL FR/DE/</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY HYDRAPHASE HA UV LEICHT TB 40</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY HYDRAPHASE HA UV REICHHALTIG</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY HYDRAPHASE INTENSE AUGEN 15</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY HYDRAPHASE INTENSE SERUM 30</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY HYDREANE EXTRA RICHE 40 ML</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY ISO UREA TB 200 ML</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY KERIUM ANTISCHUPP FETT HAAR F</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY KERIUM ANTISCHUPP TROCK HAAR</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY KERIUM DS CREME 40 ML</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY KERIUM SHAMPOO EXTREM-MILD F</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY LIPIKAR BAUME AP+M DISP 400 ML</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY LIPIKAR BAUME AP+M ECO TUBE 20</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY LIPIKAR BAUME AP+M LIGHT FL 400</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY LIPIKAR DUSCH-BADEOEL 400 ML</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY LIPIKAR DUSCHGEL FL 200 ML</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY LIPIKAR DUSCHGEL FL 400 ML</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY LIPIKAR DUSCHOEL AP+ NACHFUEL</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY LIPIKAR ECZEMA MED CREME DISP</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY LIPIKAR EMULSION 200 ML</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY LIPIKAR FLUID 400 ML</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY LIPIKAR FLUID UREA 5+ DISP 400 ML</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY LIPIKAR GEL FLUID 200 ML</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY LIPIKAR GEL FLUID 400 ML</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY LIPIKAR HANOCREME 50 ML</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY LIPIKAR MILCH FL 400 ML</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY LIPIKAR MILCH TB 200 ML</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY LIPIKAR MILCH UREA 10% DISP 400</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY LIPIKAR STICK APs 15 ML</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY LIPIKAR SURGRAS LIQUIDE 400 ML</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY LIPIKAR SYNDET AP+ DISP 400 ML</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY NUTRITIC LEVRES 4.7 ML</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY NUTRITIC TOPF 50 ML-</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY PHYSIO AUGEN MAKE UP ENTFERN</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY PHYSIO REINIGUNGSFLUID FL 200</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY PHYSIOLO OIL-INF MIZELLENW 20%</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY PHYSIOLOG MIZELLEN REINIGUNGS,</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY PHYSIOLOG REINIG LOTION FL 200</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY PHYSIOLOG REINIGUNGSGEL -20%</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY PHYSIOLOGISCH REINIGUNGSSCHA</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY PIGMENTCLAR PFLEGE TB 40 ML</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY POSTHELIOS GEL APRES-SOLEIL TB</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY POSTHELIOS HYDRA-GEL TB 200 ML.</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY PURE NIACINAMIDE 10 SERUM FL 30</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY REDERMIC C CREME UV 40 ML</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY REDERMIC C PEAU NORMALE 40 ML</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY REDERMIC PURE VITAMIN C10 SER</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY REDERMIC REDERMIC C PS 40 ML.</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY REDERMIC RETINOL 83 SERUM PIP</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY REDERMIC RETINOL TB 30 ML</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY REINIGUNGSFLUID EMPF HAUT -20</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY RESPECT DEMAQUI YEUX WATERP.</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY RESPECT TOLERIANE DEM YEUX 30</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY ROSALIAC CC CREME 50 ML</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY ROSALIAC UV LEICHT RENO 40 ML</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY SUBSTIANE AUGEN TB 15 ML.</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY SUBSTIANE CREME TB 40 ML</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY TOLERIANE DERMA REINIGUNGSFL</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY TOLERIANE DERMALLERGO AUGEN</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY TOLERIANE DERMALLERGO CREME</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY TOLERIANE DERMALLERGO FLUID A</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY TOLERIANE DERMALLERGO NACHT</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY TOLERIANE DERMO NETTOYANT 20</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY TOLERIANE REINIGUNGSPFLEGE T</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY TOLERIANE ROSALIAG AR KONZENT</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY TOLERIANE ROSALIAG AR PFL LSF3</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY TOLERIANE SENSITIVE CREME TB 4</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY TOLERIANE SENSITIVE FLUID NEU 4</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY TOLERIANE SENSITIVE REICH CRE</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY TOLERIANE ULTRA 8 SPR 100 ML</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY TOLERIANE ULTRA DERMA SERUM</t>
+  </si>
+  <si>
+    <t>ROCHE POSAY TOLERIANE ULTRA NACHT TB 40 ML</t>
   </si>
 </sst>
 </file>
@@ -485,7 +890,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -494,6 +899,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -774,15 +1182,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C136"/>
+  <dimension ref="A1:D136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="F112" sqref="F112"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="D133" sqref="D133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -792,8 +1200,11 @@
       <c r="C1" s="2">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -803,8 +1214,11 @@
       <c r="C2" s="2">
         <v>634.4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -814,8 +1228,11 @@
       <c r="C3" s="2">
         <v>144</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,8 +1242,11 @@
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -836,8 +1256,11 @@
       <c r="C5" s="2">
         <v>633.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -847,8 +1270,11 @@
       <c r="C6" s="2">
         <v>544</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -858,8 +1284,11 @@
       <c r="C7" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -869,8 +1298,11 @@
       <c r="C8" s="2">
         <v>55.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -880,8 +1312,11 @@
       <c r="C9" s="2">
         <v>374.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -891,8 +1326,11 @@
       <c r="C10" s="2">
         <v>77.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -902,8 +1340,11 @@
       <c r="C11" s="2">
         <v>712.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -913,8 +1354,11 @@
       <c r="C12" s="2">
         <v>248.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -924,8 +1368,11 @@
       <c r="C13" s="2">
         <v>71</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -935,8 +1382,11 @@
       <c r="C14" s="2">
         <v>606.4</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -946,8 +1396,11 @@
       <c r="C15" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -957,8 +1410,11 @@
       <c r="C16" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -968,8 +1424,11 @@
       <c r="C17" s="2">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -979,8 +1438,11 @@
       <c r="C18" s="2">
         <v>76</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -990,8 +1452,11 @@
       <c r="C19" s="2">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -1001,8 +1466,11 @@
       <c r="C20" s="2">
         <v>264</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -1012,8 +1480,11 @@
       <c r="C21" s="2">
         <v>105</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -1023,8 +1494,11 @@
       <c r="C22" s="2">
         <v>667.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -1034,8 +1508,11 @@
       <c r="C23" s="2">
         <v>303.2</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -1045,8 +1522,11 @@
       <c r="C24" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -1056,8 +1536,11 @@
       <c r="C25" s="2">
         <v>36.9</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -1067,8 +1550,11 @@
       <c r="C26" s="2">
         <v>664.2</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -1078,8 +1564,11 @@
       <c r="C27" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -1089,8 +1578,11 @@
       <c r="C28" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
@@ -1100,8 +1592,11 @@
       <c r="C29" s="2">
         <v>26.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
@@ -1111,8 +1606,11 @@
       <c r="C30" s="2">
         <v>15.9</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
@@ -1122,8 +1620,11 @@
       <c r="C31" s="2">
         <v>122.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>35</v>
       </c>
@@ -1133,8 +1634,11 @@
       <c r="C32" s="2">
         <v>35.6</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
@@ -1144,8 +1648,11 @@
       <c r="C33" s="2">
         <v>182</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
@@ -1155,8 +1662,11 @@
       <c r="C34" s="2">
         <v>42</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>38</v>
       </c>
@@ -1166,8 +1676,11 @@
       <c r="C35" s="2">
         <v>206</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>39</v>
       </c>
@@ -1177,8 +1690,11 @@
       <c r="C36" s="2">
         <v>107.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
@@ -1188,8 +1704,11 @@
       <c r="C37" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>41</v>
       </c>
@@ -1199,8 +1718,11 @@
       <c r="C38" s="2">
         <v>150.5</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>42</v>
       </c>
@@ -1210,8 +1732,11 @@
       <c r="C39" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>43</v>
       </c>
@@ -1221,8 +1746,11 @@
       <c r="C40" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>44</v>
       </c>
@@ -1232,8 +1760,11 @@
       <c r="C41" s="2">
         <v>48</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>45</v>
       </c>
@@ -1243,8 +1774,11 @@
       <c r="C42" s="2">
         <v>53.8</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>46</v>
       </c>
@@ -1254,8 +1788,11 @@
       <c r="C43" s="2">
         <v>26.8</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>47</v>
       </c>
@@ -1265,8 +1802,11 @@
       <c r="C44" s="2">
         <v>26</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>48</v>
       </c>
@@ -1276,8 +1816,11 @@
       <c r="C45" s="2">
         <v>141</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>49</v>
       </c>
@@ -1287,8 +1830,11 @@
       <c r="C46" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>50</v>
       </c>
@@ -1298,8 +1844,11 @@
       <c r="C47" s="2">
         <v>71.7</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>51</v>
       </c>
@@ -1309,8 +1858,11 @@
       <c r="C48" s="2">
         <v>72</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>52</v>
       </c>
@@ -1320,8 +1872,11 @@
       <c r="C49" s="2">
         <v>142.5</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>53</v>
       </c>
@@ -1331,8 +1886,11 @@
       <c r="C50" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>54</v>
       </c>
@@ -1342,8 +1900,11 @@
       <c r="C51" s="2">
         <v>138</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>55</v>
       </c>
@@ -1353,8 +1914,11 @@
       <c r="C52" s="2">
         <v>117.5</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>56</v>
       </c>
@@ -1364,8 +1928,11 @@
       <c r="C53" s="2">
         <v>94</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>57</v>
       </c>
@@ -1375,8 +1942,11 @@
       <c r="C54" s="2">
         <v>47</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>58</v>
       </c>
@@ -1386,8 +1956,11 @@
       <c r="C55" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>59</v>
       </c>
@@ -1397,8 +1970,11 @@
       <c r="C56" s="2">
         <v>122</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>60</v>
       </c>
@@ -1408,8 +1984,11 @@
       <c r="C57" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>61</v>
       </c>
@@ -1419,8 +1998,11 @@
       <c r="C58" s="2">
         <v>51.5</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>62</v>
       </c>
@@ -1430,8 +2012,11 @@
       <c r="C59" s="2">
         <v>129</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>63</v>
       </c>
@@ -1441,8 +2026,11 @@
       <c r="C60" s="2">
         <v>245</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>64</v>
       </c>
@@ -1452,8 +2040,11 @@
       <c r="C61" s="2">
         <v>166.5</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>65</v>
       </c>
@@ -1463,8 +2054,11 @@
       <c r="C62" s="2">
         <v>73.7</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>66</v>
       </c>
@@ -1474,8 +2068,11 @@
       <c r="C63" s="2">
         <v>112.8</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>67</v>
       </c>
@@ -1485,8 +2082,11 @@
       <c r="C64" s="2">
         <v>72.599999999999994</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>68</v>
       </c>
@@ -1496,8 +2096,11 @@
       <c r="C65" s="2">
         <v>36.299999999999997</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>69</v>
       </c>
@@ -1507,8 +2110,11 @@
       <c r="C66" s="2">
         <v>81</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>70</v>
       </c>
@@ -1518,8 +2124,11 @@
       <c r="C67" s="2">
         <v>81</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>71</v>
       </c>
@@ -1529,8 +2138,11 @@
       <c r="C68" s="2">
         <v>28.5</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>72</v>
       </c>
@@ -1540,8 +2152,11 @@
       <c r="C69" s="2">
         <v>209.5</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>73</v>
       </c>
@@ -1551,8 +2166,11 @@
       <c r="C70" s="2">
         <v>25.7</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>74</v>
       </c>
@@ -1562,8 +2180,11 @@
       <c r="C71" s="2">
         <v>97.5</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>75</v>
       </c>
@@ -1573,8 +2194,11 @@
       <c r="C72" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>76</v>
       </c>
@@ -1584,8 +2208,11 @@
       <c r="C73" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>77</v>
       </c>
@@ -1595,8 +2222,11 @@
       <c r="C74" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>78</v>
       </c>
@@ -1606,8 +2236,11 @@
       <c r="C75" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>79</v>
       </c>
@@ -1617,8 +2250,11 @@
       <c r="C76" s="2">
         <v>150</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>80</v>
       </c>
@@ -1628,8 +2264,11 @@
       <c r="C77" s="2">
         <v>239.2</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>81</v>
       </c>
@@ -1639,8 +2278,11 @@
       <c r="C78" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>82</v>
       </c>
@@ -1650,8 +2292,11 @@
       <c r="C79" s="2">
         <v>32.5</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>83</v>
       </c>
@@ -1661,8 +2306,11 @@
       <c r="C80" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>84</v>
       </c>
@@ -1672,8 +2320,11 @@
       <c r="C81" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>85</v>
       </c>
@@ -1683,8 +2334,11 @@
       <c r="C82" s="2">
         <v>138</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>86</v>
       </c>
@@ -1694,8 +2348,11 @@
       <c r="C83" s="2">
         <v>338</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>87</v>
       </c>
@@ -1705,8 +2362,11 @@
       <c r="C84" s="2">
         <v>174.6</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>88</v>
       </c>
@@ -1716,8 +2376,11 @@
       <c r="C85" s="2">
         <v>262.5</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>89</v>
       </c>
@@ -1727,8 +2390,11 @@
       <c r="C86" s="2">
         <v>199.5</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>90</v>
       </c>
@@ -1738,8 +2404,11 @@
       <c r="C87" s="2">
         <v>48</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>91</v>
       </c>
@@ -1749,8 +2418,11 @@
       <c r="C88" s="2">
         <v>31</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>92</v>
       </c>
@@ -1760,8 +2432,11 @@
       <c r="C89" s="2">
         <v>29.7</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>93</v>
       </c>
@@ -1771,8 +2446,11 @@
       <c r="C90" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>94</v>
       </c>
@@ -1782,8 +2460,11 @@
       <c r="C91" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>95</v>
       </c>
@@ -1793,8 +2474,11 @@
       <c r="C92" s="2">
         <v>166</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>96</v>
       </c>
@@ -1804,8 +2488,11 @@
       <c r="C93" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>97</v>
       </c>
@@ -1815,8 +2502,11 @@
       <c r="C94" s="2">
         <v>96.6</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>98</v>
       </c>
@@ -1826,8 +2516,11 @@
       <c r="C95" s="2">
         <v>193.2</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>99</v>
       </c>
@@ -1837,8 +2530,11 @@
       <c r="C96" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>100</v>
       </c>
@@ -1848,8 +2544,11 @@
       <c r="C97" s="2">
         <v>144</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>101</v>
       </c>
@@ -1859,8 +2558,11 @@
       <c r="C98" s="2">
         <v>68.400000000000006</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>102</v>
       </c>
@@ -1870,8 +2572,11 @@
       <c r="C99" s="2">
         <v>79.5</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>103</v>
       </c>
@@ -1881,8 +2586,11 @@
       <c r="C100" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>104</v>
       </c>
@@ -1892,8 +2600,11 @@
       <c r="C101" s="2">
         <v>69</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>105</v>
       </c>
@@ -1903,8 +2614,11 @@
       <c r="C102" s="2">
         <v>53</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>106</v>
       </c>
@@ -1914,8 +2628,11 @@
       <c r="C103" s="2">
         <v>23.5</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>107</v>
       </c>
@@ -1925,8 +2642,11 @@
       <c r="C104" s="2">
         <v>182</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>108</v>
       </c>
@@ -1936,8 +2656,11 @@
       <c r="C105" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>109</v>
       </c>
@@ -1947,8 +2670,11 @@
       <c r="C106" s="2">
         <v>31</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>110</v>
       </c>
@@ -1958,8 +2684,11 @@
       <c r="C107" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>111</v>
       </c>
@@ -1969,8 +2698,11 @@
       <c r="C108" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>112</v>
       </c>
@@ -1980,8 +2712,11 @@
       <c r="C109" s="2">
         <v>52</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>113</v>
       </c>
@@ -1991,8 +2726,11 @@
       <c r="C110" s="2">
         <v>104</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>114</v>
       </c>
@@ -2002,8 +2740,11 @@
       <c r="C111" s="2">
         <v>58.8</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>115</v>
       </c>
@@ -2013,8 +2754,11 @@
       <c r="C112" s="2">
         <v>206</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>116</v>
       </c>
@@ -2024,8 +2768,11 @@
       <c r="C113" s="2">
         <v>584.1</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>117</v>
       </c>
@@ -2035,8 +2782,11 @@
       <c r="C114" s="2">
         <v>231.6</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>118</v>
       </c>
@@ -2046,8 +2796,11 @@
       <c r="C115" s="2">
         <v>90</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>119</v>
       </c>
@@ -2057,8 +2810,11 @@
       <c r="C116" s="2">
         <v>271.8</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>120</v>
       </c>
@@ -2068,8 +2824,11 @@
       <c r="C117" s="2">
         <v>135</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>121</v>
       </c>
@@ -2079,8 +2838,11 @@
       <c r="C118" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>122</v>
       </c>
@@ -2090,8 +2852,11 @@
       <c r="C119" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>123</v>
       </c>
@@ -2101,8 +2866,11 @@
       <c r="C120" s="2">
         <v>182</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>124</v>
       </c>
@@ -2112,8 +2880,11 @@
       <c r="C121" s="2">
         <v>53</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D121" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>125</v>
       </c>
@@ -2123,8 +2894,11 @@
       <c r="C122" s="2">
         <v>199.5</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D122" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>126</v>
       </c>
@@ -2134,8 +2908,11 @@
       <c r="C123" s="2">
         <v>128</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D123" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>127</v>
       </c>
@@ -2145,8 +2922,11 @@
       <c r="C124" s="2">
         <v>69.8</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>128</v>
       </c>
@@ -2156,8 +2936,11 @@
       <c r="C125" s="2">
         <v>69.8</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D125" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>129</v>
       </c>
@@ -2167,8 +2950,11 @@
       <c r="C126" s="2">
         <v>104.7</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>130</v>
       </c>
@@ -2178,8 +2964,11 @@
       <c r="C127" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D127" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>131</v>
       </c>
@@ -2189,8 +2978,11 @@
       <c r="C128" s="2">
         <v>72</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>132</v>
       </c>
@@ -2200,8 +2992,11 @@
       <c r="C129" s="2">
         <v>128.69999999999999</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>133</v>
       </c>
@@ -2211,8 +3006,11 @@
       <c r="C130" s="2">
         <v>249</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>134</v>
       </c>
@@ -2222,8 +3020,11 @@
       <c r="C131" s="2">
         <v>240</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D131" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>135</v>
       </c>
@@ -2233,8 +3034,11 @@
       <c r="C132" s="2">
         <v>90</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D132" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>136</v>
       </c>
@@ -2244,8 +3048,11 @@
       <c r="C133" s="2">
         <v>120</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D133" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>137</v>
       </c>
@@ -2255,8 +3062,11 @@
       <c r="C134" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>138</v>
       </c>
@@ -2266,8 +3076,11 @@
       <c r="C135" s="2">
         <v>85.8</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D135" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>139</v>
       </c>
@@ -2276,6 +3089,9 @@
       </c>
       <c r="C136" s="2">
         <v>0</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
